--- a/WinFormSample/ReverseReference/RR18_Excel/RR18_ExcelBookInfoSample.xlsx
+++ b/WinFormSample/ReverseReference/RR18_Excel/RR18_ExcelBookInfoSample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sophia\source\repos\WinFormSolution\WinFormGUI\WinFormSample\ReverseReference\RR18_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15ECF478-BF68-47F7-A243-1BEC7FFA3344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E88C18-ECBB-4768-B350-9206A3082C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="250" yWindow="60" windowWidth="16880" windowHeight="9550" xr2:uid="{E43F8F5E-08F4-439E-9C4A-9EEFF5ED28A6}"/>
+    <workbookView xWindow="250" yWindow="60" windowWidth="16880" windowHeight="9550" activeTab="1" xr2:uid="{E43F8F5E-08F4-439E-9C4A-9EEFF5ED28A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="117">
   <si>
     <t>Title</t>
   </si>
@@ -42,328 +42,453 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>新わかりやすいJava入門編 第3版</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>./book/9784798067759.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>図解ポケット 次世代インターネットWeb3がよくわかる本</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>./book/9784798068404.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>採るべき人 採ってはいけない人 第2版 採用に悩む小さな会社のための応募者を見抜く技術</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>./book/9784798069074.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>絶対に後悔しない家の売り方</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>./book/9784798067292.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロト・ナンバーズ攻略 AI必勝法2023</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>./book/9784798068503.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Linuxをマスターしたい人のための実践Ubuntu</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>./book/9784798068251.html</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve"> 図解！ TypeScriptのツボとコツがゼッタイにわかる本 “超”入門編</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>./book/9784798067797.html</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>改革・改善のための戦略デザイン 観光業DX</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>./book/9784798067377.html</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Unreal Engine 5 リアルタイムビジュアライゼーション</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>./book/9784798067995.html</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>TikTokショート動画マーケティング</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>./book/9784798068954.html</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>30代後半～40代のための転職「面接」受かる答え方</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>./book/9784798068145.html</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>図解ポケット ジェンダーがよくわかる本</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>./book/9784798065878.html</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>改革・改善のための戦略デザイン 介護事業DX</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>./book/9784798067926.html</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>図解入門 よくわかる最新光工学の基本と仕組み</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>./book/9784798064208.html</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>作って覚えるVisual C# 2022 デスクトップアプリ超入門</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>./book/9784798068336.html</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>図解ポケット バーチャル経済を制する！ メタバース実践講座</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>./book/9784798068442.html</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>図解入門 よくわかる半導体の動作原理</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>./book/9784798068152.html</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>はじめてのiMovie Mac/iPhone/iPad対応</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>./book/9784798068022.html</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>図解入門 よくわかる最新 要求定義の基本と実践</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>./book/9784798068312.html</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>図解ポケット デジタルデータを収益化！ NFT実践講座</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>./book/9784798068435.html</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>マルチプラットフォーム対応 最新フレームワークFlutter3入門</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>./book/9784798068527.html</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>C#のプログラミングのツボとコツがゼッタイにわかる本</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>./book/9784798067780.html</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>低糖質のキッシュとタルト ケークサレ シンプルで美味しい塩味の焼き菓子</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>./book/9784798068381.html</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>図解入門業界研究 最新電力・ガス業界の動向とカラクリがよ～くわかる本［第7版］</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>./book/9784798068695.html</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>図解入門ビジネス 最新トヨタ生産方式の基本と実践がよ～くわかる本［第2版］</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>./book/9784798068701.html</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>最新 LINE&amp;amp;Instagram&amp;amp; Twitter&amp;amp;Facebook&amp;amp;TikTok ゼロからやさしくわかる本［第3版］</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>./book/9784798068572.html</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>3分読むだけでグッスリ眠れる本</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>./book/9784798067254.html</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Tableauデータ分析 ～入門から実践まで～ 第3版</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>./book/9784798067896.html</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>安井式上がりXハロン攻略法</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>./book/9784798068633.html</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>1級建築施工管理技士第一次検定 選択対策＆過去問題 2023年版</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>./book/9784798068220.html</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>図解入門 よくわかる最新 有機化学の基本と仕組み</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>./book/9784798068350.html</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>縄文の日本人に学ぶ 古くて新しい生き方の法則</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>./book/9784798066998.html</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>世界一わかりやすい 図解 株・証券用語</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>./book/9784798067858.html</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>図解入門 土木技術者のための土木施工管理の基礎</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>./book/9784798068084.html</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>トースターで作れる！ おうちで簡単本格パン</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>./book/9784798068398.html</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>元公安調査庁2部長が教える「統一教会」問題 本当の核心 安倍元首相はなぜ撃たれたか</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>./book/9784798068589.html</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>図解入門ビジネス 最新GIS［地理情報システム］のビジネス活用がよ～くわかる本</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>./book/9784798066509.html</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>図解！ Googleスプレッドシートのツボとコツがゼッタイにわかる本</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>./book/9784798068466.html</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>CBT試験対応 10日間で合格！ 秘書検定2級パーフェクトレッスン</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>./book/9784798067216.html</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>これ1冊で最短合格 ディープラーニングG検定ジェネラリスト 要点整理テキスト&amp;amp;問題集 第2版</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>./book/9784798067773.html</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>WordPress本格Webサイト構築パーフェクトマスター［Ver.6完全対応最新版］</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>./book/9784798068213.html</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>図解ポケット 次世代分散型自律組織DAOがよくわかる本</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>./book/9784798068411.html</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>PMBOK対応 童話でわかるプロジェクトマネジメント［第2版］</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>./book/9784798068626.html</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>動画配信のための ゼロから分かるAfter Effects</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>./book/9784798066011.html</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>激動期を生き抜く これからの帝王学</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>./book/9784798068008.html</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>図解ポケット ［最新］令和4年度税制対応！ 法人税がよくわかる本</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>./book/9784798068541.html</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>図解入門業界研究 最新健康ビジネスの動向とカラクリがよ～くわかる本［第3版］</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>./book/9784798067506.html</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>演習で学ぶ「流体の力学」</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>./book/9784798067940.html</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>丸ごと一冊！ ノーザンで儲ける本</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>./book/9784798068459.html</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>こころがフワッとする言葉 オールカラー版</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>./book/9784798068497.html</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>改革・改善のための戦略デザイン 小売業DX</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>./book/9784798065298.html</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>はじめての全部スマホでできる！ ヤフオク！</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>./book/9784798067438.html</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>見てわかるUnreal Engine5超入門</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>./book/9784798068039.html</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>図解入門ビジネス 最新コーチングの手法と実践がよ～くわかる本［第4版］</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>./book/9784798068121.html</t>
-  </si>
-  <si>
-    <t>オメガ3神話の真実 リアルサイエンスで暴く〝必須脂肪酸〟の嘘</t>
-  </si>
-  <si>
-    <t>./book/9784798068015.html</t>
-  </si>
-  <si>
-    <t>図解入門業界研究 最新クレジット／ローン業界の動向とカラクリがよ～くわかる本［第6版］</t>
-  </si>
-  <si>
-    <t>./book/9784798067735.html</t>
-  </si>
-  <si>
-    <t>Webアプリ開発で学ぶ Rust言語入門</t>
-  </si>
-  <si>
-    <t>./book/9784798067315.html</t>
-  </si>
-  <si>
-    <t>30代後半～40代のための 転職「書類」受かる書き方</t>
-  </si>
-  <si>
-    <t>./book/9784798068138.html</t>
-  </si>
-  <si>
-    <t>新しい高校教科書に学ぶ大人の教養 高校生物</t>
-  </si>
-  <si>
-    <t>./book/9784798067070.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>ISBN</t>
+  </si>
+  <si>
+    <t>Published Date</t>
+  </si>
+  <si>
+    <t>Linuxをマスターしたい人のための実践Ubuntu  （単行本）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水野源 著小林準 監</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -409,8 +534,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -729,7 +857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E2DABF-6711-4B1E-A67F-659B6A47AE0A}">
   <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -746,50 +874,50 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1192,12 +1320,48 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE75794-2A21-40AF-ABB8-494DA0DB686B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3">
+        <v>9784798068251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="1">
+        <v>44904</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
